--- a/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面遷移図.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\functional-design\screen-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3053A-24AE-43B0-849C-625AC7A4DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB55401-983F-47D6-ACBF-2346CBD5FBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="180" windowWidth="21555" windowHeight="15870" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="330" windowWidth="21555" windowHeight="15870" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="168" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>作成者</t>
   </si>
@@ -113,8 +113,25 @@
     <t xml:space="preserve">【説明】 </t>
   </si>
   <si>
-    <t>画面遷移とは？</t>
+    <t>画面遷移図とは？</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>「画面遷移図」は、ユーザーが目的の機能を使うためにどのような操作をすればよいかを図で書き表したものです。</t>
+  </si>
+  <si>
+    <t>業務フロー図と混同しがちですが、画面遷移図はシステムで実際に表示される画面に限ったもののみをまとめたものになります。</t>
+  </si>
+  <si>
+    <t>この画面遷移図は、業務フローと同様に図形や線を用いて作成していきますが、グラフィカルで理解を簡単にしてくれるもののため、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアントと開発者の両者にとって重要なものです。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -124,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -234,6 +251,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -354,6 +378,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -401,12 +431,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク 2" xfId="4" xr:uid="{DF386E65-FBD4-4527-867C-EC14411C17D2}"/>
@@ -3446,9 +3471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE266C4-B8ED-4F1B-9AE8-32581E371F97}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3467,16 +3490,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C3" s="11"/>
+      <c r="C3" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C4" s="13"/>
+      <c r="C4" s="31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C5" s="11"/>
+      <c r="C5" s="31" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C6" s="11"/>
+      <c r="C6" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="C7" s="11"/>
@@ -3517,148 +3548,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="23" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="17" t="s">
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="14" t="s">
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="17" t="s">
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="19"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="21"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="20">
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="22">
         <v>44541</v>
       </c>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="14" t="s">
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="20">
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="22">
         <v>44541</v>
       </c>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="22"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="24"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -4186,11 +4217,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -4199,6 +4225,11 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面遷移図.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面遷移図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\functional-design\screen-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB55401-983F-47D6-ACBF-2346CBD5FBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230B08EC-F189-492E-A7FD-7947C597DF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="330" windowWidth="21555" windowHeight="15870" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="105" windowWidth="14925" windowHeight="15645" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="168" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>作成者</t>
   </si>
@@ -101,13 +101,6 @@
       <t>カリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>友利拓真</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>友利拓真</t>
   </si>
   <si>
     <t xml:space="preserve">【説明】 </t>
@@ -380,12 +373,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,7 +419,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク 2" xfId="4" xr:uid="{DF386E65-FBD4-4527-867C-EC14411C17D2}"/>
@@ -3481,32 +3474,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C3" s="31" t="s">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C4" s="31" t="s">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
+      <c r="C6" s="14" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C5" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C6" s="31" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="9" customFormat="1" ht="32.25" customHeight="1">
@@ -3539,7 +3532,7 @@
   <dimension ref="A1:BF30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -3548,148 +3541,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="25" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="16" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="16" t="s">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="21"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="20"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="16" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="22">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="21">
         <v>44541</v>
       </c>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="16" t="s">
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="22">
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="21">
         <v>44541</v>
       </c>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="24"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="23"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -4217,6 +4206,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -4225,11 +4219,6 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
